--- a/Data/Processed/Data_for_R_Project.xlsx
+++ b/Data/Processed/Data_for_R_Project.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sakai\2\nicholas\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yekhaungoo/Library/CloudStorage/Dropbox/Academic Years/Duke University (MIDP)/Spring 2024/Environmental Data Analysis/R Group Project/R Final Project/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED414BF-C027-3744-AAA5-D45BD753CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Years</t>
   </si>
@@ -41,23 +42,17 @@
     <t>Invgro</t>
   </si>
   <si>
-    <t>Electirictygro</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Turkiye</t>
+    <t>Electricitygro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0\ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
@@ -168,13 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -193,12 +187,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -241,7 +229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 5"/>
+        <xdr:cNvPr id="2" name="Line 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -299,7 +293,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 6"/>
+        <xdr:cNvPr id="3" name="Line 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -607,535 +607,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="2" customWidth="1"/>
-    <col min="6" max="210" width="8.7265625" style="2" customWidth="1"/>
-    <col min="211" max="16384" width="11.453125" style="2"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="210" width="8.7109375" style="2" customWidth="1"/>
+    <col min="211" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A2" s="8">
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1999</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-3.2631684136670458</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>1.5043373931833499</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-14.437893253813186</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>3.9875901606073016</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="10">
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2000</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>6.9332397084930477</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1.45790187647314</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>21.908517514055134</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>7.7781274293627911</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="8">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2001</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>-5.7500065570035872</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>1.4838942530711801</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>-27.009906153852299</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>-1.2469517995192358</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="10">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>2002</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>6.4477220524344006</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1.3988328763027</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>17.821019222768598</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>6.0554239208818528</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="8">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2003</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>5.7632060692431253</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1.32275076403145</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>19.394187571041812</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>8.5654893732758133</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="10">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>2004</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>9.7959363822299537</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1.36315757853758</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>31.91865407734403</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>8.3888660236565613</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A8" s="8">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>2005</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>8.9923049439050402</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1.3475790635204301</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>19.568878138687751</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>7.5291868461696776</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="10">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>2006</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>6.9479880856862906</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>1.29658908503988</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>15.386130760032032</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>10.615839199035172</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A10" s="8">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>2007</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>5.0435079246984316</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>0.79677183258453599</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>5.4971659717693484</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>7.6644407646813129</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A11" s="10">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>2008</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0.81502457097791137</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>1.26560336535681</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>-2.7183401370292017</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>4.3912664566133186</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="8">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>2009</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>-4.8231539489948858</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1.3803027157145</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>-20.555580552155234</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>-3.1204537764066731</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A13" s="10">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>2010</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>8.4271043229339142</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1.51943093763293</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>21.963493370227766</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>9.6603377692341397</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A14" s="8">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>2011</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>11.200110582736642</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>1.4677741644914299</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>23.675550916041971</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>8.1655629216056411</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A15" s="10">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>2012</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>4.7884927093712548</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>1.2747180198130701</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>2.8623993098167091</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>4.7414958127238283</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A16" s="8">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>2013</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>8.485817001670128</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>1.28441474668</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>14.243719950660832</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>1.6015521994793724</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A17" s="10">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>2014</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>4.9397151602090617</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>1.3490889002021</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>4.910376613243784</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>4.7109952677469646</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A18" s="8">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>2015</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>6.0844869001794848</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>1.33411577030414</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>9.2810743475007769</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>4.791872115311846</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A19" s="10">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>2016</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>3.3230842084409886</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>1.3454259350486899</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>2.2050097819744252</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>6.3924046853231387</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A20" s="12">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>2017</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>7.5019974935857761</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>1.29675571220462</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>8.2565096013441206</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>7.707022346611403</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A21" s="10">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>2018</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>3.0131703885747356</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>1.35360298648434</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0.14415823500577574</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>3.6982728129418385</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A22" s="12">
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>2019</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>0.81851453085894832</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>1.4296968810978901</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>-12.47179165612485</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>-0.3713936699478837</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A23" s="10">
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>2020</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>1.8598730374663717</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>0.97038603135316204</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>7.3276701312777703</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>2.1102098769506084</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A24" s="12">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>2021</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>11.439395691361852</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>0.91044490256451105</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>7.2297578151586492</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="8">
         <v>9.1317605761989107</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="14">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>2022</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>5.533427876941488</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>0.98458624446935905</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>1.2675373491428701</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>-4.0163203690912752E-2</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.5" customHeight="1">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
